--- a/testing results.xlsx
+++ b/testing results.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12580" yWindow="760" windowWidth="12520" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="-440" yWindow="320" windowWidth="22780" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="newerResultsNov14.csv" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,50 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>boosting_100.txt</t>
-  </si>
-  <si>
-    <t>SMPA_Output_1114_2.txt</t>
-  </si>
-  <si>
-    <t>submitRFFE.txt</t>
-  </si>
-  <si>
-    <t>testpredictions2.csv</t>
-  </si>
-  <si>
-    <t>Ultimato.txt</t>
-  </si>
-  <si>
-    <t>testY_1113.txt</t>
-  </si>
-  <si>
-    <t>PASM_OutputR_1114.txt</t>
-  </si>
-  <si>
-    <t>PASM_OutputS_1114.txt</t>
-  </si>
-  <si>
-    <t>Bagging_tree_60.txt</t>
-  </si>
-  <si>
-    <t>P_v1.txt</t>
-  </si>
-  <si>
-    <t>test_predictions3.txt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>testY_1114_eclfWithoutWeights.txt</t>
   </si>
   <si>
-    <t>Binary, eclf without weights, adaboost included</t>
-  </si>
-  <si>
     <t>Avg</t>
   </si>
   <si>
@@ -77,12 +37,123 @@
   </si>
   <si>
     <t>testY_NB_basics_1120.txt</t>
+  </si>
+  <si>
+    <t>y1_multilabel_eclf_with weights232230_NA111.txt</t>
+  </si>
+  <si>
+    <t>y2_binary_eclf_with weights232231_NA111.txt</t>
+  </si>
+  <si>
+    <t>y3_testY_binary_eclf_no weights_NA002.txt</t>
+  </si>
+  <si>
+    <t>y4_testY_multilabel_eclf_no weights_NA002.txt</t>
+  </si>
+  <si>
+    <t>y5_testY_binary_eclf_with weights121121_NA111.txt</t>
+  </si>
+  <si>
+    <t>y6_binary_eclf_no weights_NA111.txt</t>
+  </si>
+  <si>
+    <t>testY_multilabel_eclf_no weights_NA000.txt</t>
+  </si>
+  <si>
+    <t>testY_multilabel_eclf8_2_no weights_NA000.txt</t>
+  </si>
+  <si>
+    <t>testY_binary_eclf8_1_no weights_NA002.txt</t>
+  </si>
+  <si>
+    <t>testY_multilabel_ae_eclf8_2_no weights_NA000.txt</t>
+  </si>
+  <si>
+    <t>y1_multilabel_eclf_with weights2322303_NA111.txt</t>
+  </si>
+  <si>
+    <t>testY_binary_eclf_with weights232230_NA111-1.txt</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>gnb</t>
+  </si>
+  <si>
+    <t>kn</t>
+  </si>
+  <si>
+    <t>svc</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>binary, soft voting, NA=111 filled by median of all data</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>multilabel, svc, NA=002 filled by median of that label</t>
+  </si>
+  <si>
+    <t>binary, svc, NA=003 filled by label median</t>
+  </si>
+  <si>
+    <t>multilabel, rf, NA=111 filled by label median</t>
+  </si>
+  <si>
+    <t>multilabel, nb, no PCA, no NA filtering, filled by label median</t>
+  </si>
+  <si>
+    <t>multilabel, soft voting, NA=111 filled by label median</t>
+  </si>
+  <si>
+    <t>binary, soft voting, NA=111 filled by label median</t>
+  </si>
+  <si>
+    <t>binary, soft voting, NA=002 filled by label median</t>
+  </si>
+  <si>
+    <t>multilabel, soft voting, NA=002 filled by label median</t>
+  </si>
+  <si>
+    <t>multilabel, soft voting, NA=000</t>
+  </si>
+  <si>
+    <t>multilabel, nn, NA=000</t>
+  </si>
+  <si>
+    <t>binary, nn, NA=002 filled by label median</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>ROC AUC score</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>File name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -132,18 +203,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,365 +577,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.98335805300000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.95392685499999996</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.97293112400000004</v>
+      </c>
+      <c r="M3" s="2">
+        <f>AVERAGE(J3:L3)</f>
+        <v>0.97007201066666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.98605758600000004</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.96184820900000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.97565576300000001</v>
+      </c>
+      <c r="M4" s="2">
+        <f>AVERAGE(J4:L4)</f>
+        <v>0.97452051933333339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.98577925399999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.95834197600000004</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.97405975099999997</v>
+      </c>
+      <c r="M5" s="2">
+        <f>AVERAGE(J5:L5)</f>
+        <v>0.9727269936666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.89527816500000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.751020621</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.85507494799999995</v>
+      </c>
+      <c r="M6" s="2">
+        <f>AVERAGE(J6:L6)</f>
+        <v>0.83379124466666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.97350462400000004</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.94372970300000003</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.96734635400000002</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M19" si="0">AVERAGE(J7:L7)</f>
+        <v>0.96152689366666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.98549377100000002</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.95958551299999995</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.97422028699999996</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9730998569999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.98384924900000004</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.95621098800000004</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.97344045000000001</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9711668956666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.98235127099999997</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.95321508899999996</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.97269556000000001</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96942064000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.98306062599999999</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.95743366399999996</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.974171224</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97155517133333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.98402211500000003</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.95681200300000002</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.97345043799999997</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97142818533333342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.983669558</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.95502665900000006</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.97329041500000002</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97066221066666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.983814721</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.95745330399999995</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.97302578500000003</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97143126999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.98157230799999995</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.94791634999999996</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.96546280600000001</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96498382133333338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>0.98335805300000001</v>
-      </c>
-      <c r="C2">
-        <v>0.95392685499999996</v>
-      </c>
-      <c r="D2">
-        <v>0.97293112400000004</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(B2:D2)</f>
-        <v>0.97007201066666671</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.98448076600000001</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.95031686400000004</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.97073972200000003</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96851245066666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>0.98605758600000004</v>
-      </c>
-      <c r="C3">
-        <v>0.96184820900000001</v>
-      </c>
-      <c r="D3">
-        <v>0.97565576300000001</v>
-      </c>
-      <c r="E3">
-        <f>AVERAGE(B3:D3)</f>
-        <v>0.97452051933333339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="J17" s="2">
+        <v>0.86581081999999998</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.58682376700000005</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.87682064699999995</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.776485078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.98577925399999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.95834197600000004</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.97405975099999997</v>
-      </c>
-      <c r="E4">
-        <f>AVERAGE(B4:D4)</f>
-        <v>0.9727269936666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.98638095999999997</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.96165082499999999</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.97509174899999995</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97437451133333342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>0.89527816500000001</v>
-      </c>
-      <c r="C5">
-        <v>0.751020621</v>
-      </c>
-      <c r="D5">
-        <v>0.85507494799999995</v>
-      </c>
-      <c r="E5">
-        <f>AVERAGE(B5:D5)</f>
-        <v>0.83379124466666665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0.97350462400000004</v>
-      </c>
-      <c r="C6">
-        <v>0.94372970300000003</v>
-      </c>
-      <c r="D6">
-        <v>0.96734635400000002</v>
-      </c>
-      <c r="E6">
-        <v>0.96152689400000002</v>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.98383963900000004</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.95621712000000003</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.973421286</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97115934833333328</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.67239426700000005</v>
-      </c>
-      <c r="D2">
-        <v>0.47192124499999999</v>
-      </c>
-      <c r="E2">
-        <v>0.38223151300000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.96653292800000001</v>
-      </c>
-      <c r="D3">
-        <v>0.89961645999999995</v>
-      </c>
-      <c r="E3">
-        <v>0.95756243600000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.94009566700000002</v>
-      </c>
-      <c r="D4">
-        <v>0.80389598699999998</v>
-      </c>
-      <c r="E4">
-        <v>0.90382565999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2.9617250000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.93341602700000004</v>
-      </c>
-      <c r="E5">
-        <v>0.965365535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0.63259050299999997</v>
-      </c>
-      <c r="D6">
-        <v>0.89604634800000005</v>
-      </c>
-      <c r="E6">
-        <v>0.96047605700000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>0.18972903199999999</v>
-      </c>
-      <c r="D7">
-        <v>0.861711801</v>
-      </c>
-      <c r="E7">
-        <v>0.180731113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0.95072093300000005</v>
-      </c>
-      <c r="D8">
-        <v>0.86909422300000005</v>
-      </c>
-      <c r="E8">
-        <v>0.927263273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0.96671967000000003</v>
-      </c>
-      <c r="D9">
-        <v>0.89926025399999998</v>
-      </c>
-      <c r="E9">
-        <v>0.95747598700000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0.93678366300000004</v>
-      </c>
-      <c r="D10">
-        <v>0.84352127200000004</v>
-      </c>
-      <c r="E10">
-        <v>0.90284372999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0.43835940499999998</v>
-      </c>
-      <c r="D11">
-        <v>0.47825794500000002</v>
-      </c>
-      <c r="E11">
-        <v>0.48343131499999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12">
-        <v>0.71381592000000005</v>
-      </c>
-      <c r="E12">
-        <v>0.89038904900000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>0.98335805300000001</v>
-      </c>
-      <c r="D13">
-        <v>0.95392685499999996</v>
-      </c>
-      <c r="E13">
-        <v>0.97293112400000004</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/testing results.xlsx
+++ b/testing results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-440" yWindow="320" windowWidth="22780" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="-26560" yWindow="0" windowWidth="25100" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>testY_1114_eclfWithoutWeights.txt</t>
   </si>
@@ -145,6 +145,33 @@
   </si>
   <si>
     <t>File name</t>
+  </si>
+  <si>
+    <t>y1_binary_eclf_with_weights2322304_NA111.txt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1_multilabel_eclf_with weights2322304_NA111.txt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary, soft voting, NA=111 filled by label median</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>multilabel, soft voting, NA=111 filled by label median</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>multilabel, soft voting, NA=111 filled by label median</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yan_binary_eclf_with weights2322403_NA111.txt</t>
+  </si>
+  <si>
+    <t>y1_multilabel_eclf_with weights2322302_NA111.txt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -152,13 +179,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +193,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,14 +201,20 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -203,8 +236,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -225,30 +262,34 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="21">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -577,16 +618,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" customWidth="1"/>
     <col min="4" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" customWidth="1"/>
@@ -783,7 +824,7 @@
         <v>0.96734635400000002</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" ref="M7:M19" si="0">AVERAGE(J7:L7)</f>
+        <f t="shared" ref="M7:M20" si="0">AVERAGE(J7:L7)</f>
         <v>0.96152689366666666</v>
       </c>
     </row>
@@ -1125,10 +1166,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1149,59 +1190,223 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="2">
+        <v>0.98618960099999997</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.96124036899999998</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.97492533100000001</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.97411843399999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2">
         <v>0.98638095999999997</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="2">
         <v>0.96165082499999999</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L19" s="2">
         <v>0.97509174899999995</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M19" s="2">
         <f t="shared" si="0"/>
         <v>0.97437451133333342</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J20" s="2">
         <v>0.98383963900000004</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K20" s="2">
         <v>0.95621712000000003</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L20" s="2">
         <v>0.973421286</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M20" s="2">
         <f t="shared" si="0"/>
         <v>0.97115934833333328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.98551203899999995</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.95877025199999999</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.974659889</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.97298072700000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.98550681900000003</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.95843251200000001</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.97455055499999999</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.97282996200000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.98650737899999996</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.96192973999999998</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.97520232299999998</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.97454648099999996</v>
       </c>
     </row>
   </sheetData>
@@ -1211,6 +1416,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
